--- a/dtpu_configurations/only_integer16/80mhz/mxu_14x14/power.xlsx
+++ b/dtpu_configurations/only_integer16/80mhz/mxu_14x14/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.03927009925246239</v>
+        <v>0.04380589351058006</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.018666209653019905</v>
+        <v>0.021202344447374344</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.012079592794179916</v>
+        <v>0.012852024286985397</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.00964729581028223</v>
+        <v>0.009358244016766548</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>2.5383304455317557E-4</v>
+        <v>4.067481495440006E-4</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.002131622051820159</v>
@@ -199,10 +199,10 @@
         <v>1.2604483366012573</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12772811949253082</v>
+        <v>0.1277914047241211</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.471727728843689</v>
+        <v>1.479499340057373</v>
       </c>
     </row>
   </sheetData>
